--- a/FORMATO_TEXTURAS.xlsx
+++ b/FORMATO_TEXTURAS.xlsx
@@ -1,23 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscare.moreno\Documents\IGAC\DIGITALIZACION\PROGRAMA\FORMATO_PARA_VPcal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Documents\IGAC\FORMATOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE9DEC8A-2A3B-4B7E-A159-9E691BB6C338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="8205"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BASE" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -53,7 +65,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -234,8 +246,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -257,7 +270,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -270,8 +282,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -557,164 +568,164 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91:XFD91"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="3"/>
+      <c r="G3" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="7">
         <v>25</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="9">
+      <c r="E4" s="8"/>
+      <c r="F4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="10">
         <f>(D5*E4)/D4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="11"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="7">
         <v>25</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="9">
+      <c r="E7" s="8"/>
+      <c r="F7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="10">
         <f>(D8*E7)/D7</f>
         <v>0</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="13">
         <f>G4+G7+G10</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="7">
         <v>25</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="9">
+      <c r="E10" s="8"/>
+      <c r="F10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="10">
         <f>(D11*E10)/D10</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="11"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="G12" s="11"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
       <c r="D13" s="15">
         <f>D5+D8+D11</f>
         <v>0</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="4" t="s">
+      <c r="F14" s="3"/>
+      <c r="G14" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="18">
         <v>75</v>
       </c>
-      <c r="E15" s="7"/>
+      <c r="E15" s="8"/>
       <c r="F15" s="19" t="s">
         <v>5</v>
       </c>
@@ -723,26 +734,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="D16" s="7"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="D16" s="8"/>
       <c r="E16" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="G17" s="11"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="11"/>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="18">
         <v>75</v>
       </c>
-      <c r="E18" s="7"/>
+      <c r="E18" s="8"/>
       <c r="F18" s="19" t="s">
         <v>5</v>
       </c>
@@ -750,31 +761,31 @@
         <f>(D19*E18)/D18</f>
         <v>0</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="13">
         <f>G15+G18+G21+G24+G27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="D19" s="7"/>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="11"/>
+      <c r="D19" s="8"/>
       <c r="E19" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="11"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="G20" s="11"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="11"/>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="18">
         <v>75</v>
       </c>
-      <c r="E21" s="7"/>
+      <c r="E21" s="8"/>
       <c r="F21" s="19" t="s">
         <v>5</v>
       </c>
@@ -783,26 +794,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="D22" s="7"/>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="11"/>
+      <c r="D22" s="8"/>
       <c r="E22" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="11"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="G23" s="11"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="11"/>
+      <c r="G23" s="12"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="18">
         <v>75</v>
       </c>
-      <c r="E24" s="7"/>
+      <c r="E24" s="8"/>
       <c r="F24" s="19" t="s">
         <v>5</v>
       </c>
@@ -811,26 +822,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="D25" s="7"/>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="11"/>
+      <c r="D25" s="8"/>
       <c r="E25" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G25" s="11"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="G26" s="11"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G25" s="12"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="11"/>
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="18">
         <v>75</v>
       </c>
-      <c r="E27" s="7"/>
+      <c r="E27" s="8"/>
       <c r="F27" s="19" t="s">
         <v>5</v>
       </c>
@@ -839,177 +850,171 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="D28" s="7"/>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="11"/>
+      <c r="D28" s="8"/>
       <c r="E28" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G28" s="11"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="G29" s="11"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="11"/>
+      <c r="G29" s="12"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="14"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
       <c r="D30" s="15">
         <f>D16+D19+D22+D25+D28</f>
         <v>0</v>
       </c>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
       <c r="G30" s="16"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="3" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D31" s="21"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="4" t="s">
+      <c r="F33" s="3"/>
+      <c r="G33" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="7">
         <v>25</v>
       </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G34" s="9">
+      <c r="E34" s="8"/>
+      <c r="F34" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" s="10">
         <f>(D35*E34)/D34</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G35" s="11"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
-      <c r="G36" s="11"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="11"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" s="12"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="11"/>
+      <c r="G36" s="12"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="7">
         <v>25</v>
       </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G37" s="9">
+      <c r="E37" s="8"/>
+      <c r="F37" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G37" s="10">
         <f>(D38*E37)/D37</f>
         <v>0</v>
       </c>
-      <c r="I37" s="12">
+      <c r="I37" s="13">
         <f>G34+G37+G40</f>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G38" s="11"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
-      <c r="G39" s="11"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="11"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" s="12"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="11"/>
+      <c r="G39" s="12"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="7">
         <v>25</v>
       </c>
-      <c r="E40" s="7"/>
-      <c r="F40" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G40" s="9">
+      <c r="E40" s="8"/>
+      <c r="F40" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40" s="10">
         <f>(D41*E40)/D40</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G41" s="11"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
-      <c r="G42" s="11"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="11"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G41" s="12"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="11"/>
+      <c r="G42" s="12"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="14"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
       <c r="D43" s="15">
         <f>D35+D38+D41</f>
         <v>0</v>
       </c>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
       <c r="G43" s="16"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="3" t="s">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="2"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F44" s="2"/>
-      <c r="G44" s="4" t="s">
+      <c r="F44" s="3"/>
+      <c r="G44" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D45" s="18">
         <v>75</v>
       </c>
-      <c r="E45" s="7"/>
+      <c r="E45" s="8"/>
       <c r="F45" s="19" t="s">
         <v>5</v>
       </c>
@@ -1018,26 +1023,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="10"/>
-      <c r="D46" s="7"/>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="11"/>
+      <c r="D46" s="8"/>
       <c r="E46" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G46" s="11"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="10"/>
-      <c r="G47" s="11"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G46" s="12"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="11"/>
+      <c r="G47" s="12"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D48" s="18">
         <v>75</v>
       </c>
-      <c r="E48" s="7"/>
+      <c r="E48" s="8"/>
       <c r="F48" s="19" t="s">
         <v>5</v>
       </c>
@@ -1045,31 +1050,31 @@
         <f>(D49*E48)/D48</f>
         <v>0</v>
       </c>
-      <c r="I48" s="12">
+      <c r="I48" s="13">
         <f>G45+G48+G51+G54+G57</f>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="10"/>
-      <c r="D49" s="7"/>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="11"/>
+      <c r="D49" s="8"/>
       <c r="E49" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G49" s="11"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="10"/>
-      <c r="G50" s="11"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G49" s="12"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="11"/>
+      <c r="G50" s="12"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D51" s="18">
         <v>75</v>
       </c>
-      <c r="E51" s="7"/>
+      <c r="E51" s="8"/>
       <c r="F51" s="19" t="s">
         <v>5</v>
       </c>
@@ -1078,26 +1083,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="10"/>
-      <c r="D52" s="7"/>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="11"/>
+      <c r="D52" s="8"/>
       <c r="E52" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G52" s="11"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="10"/>
-      <c r="G53" s="11"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G52" s="12"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="11"/>
+      <c r="G53" s="12"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D54" s="18">
         <v>75</v>
       </c>
-      <c r="E54" s="7"/>
+      <c r="E54" s="8"/>
       <c r="F54" s="19" t="s">
         <v>5</v>
       </c>
@@ -1106,26 +1111,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="10"/>
-      <c r="D55" s="7"/>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="11"/>
+      <c r="D55" s="8"/>
       <c r="E55" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G55" s="11"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="10"/>
-      <c r="G56" s="11"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G55" s="12"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="11"/>
+      <c r="G56" s="12"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D57" s="18">
         <v>75</v>
       </c>
-      <c r="E57" s="7"/>
+      <c r="E57" s="8"/>
       <c r="F57" s="19" t="s">
         <v>5</v>
       </c>
@@ -1134,177 +1139,171 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="10"/>
-      <c r="D58" s="7"/>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="11"/>
+      <c r="D58" s="8"/>
       <c r="E58" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G58" s="11"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="10"/>
-      <c r="G59" s="11"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="13"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
+      <c r="G58" s="12"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="11"/>
+      <c r="G59" s="12"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="14"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
       <c r="D60" s="15">
         <f>D46+D49+D52+D55+D58</f>
         <v>0</v>
       </c>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
       <c r="G60" s="16"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="21"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="21"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="3" t="s">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D61" s="21"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="2"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="E63" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F63" s="2"/>
-      <c r="G63" s="4" t="s">
+      <c r="F63" s="3"/>
+      <c r="G63" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D64" s="6">
+      <c r="D64" s="7">
         <v>25</v>
       </c>
-      <c r="E64" s="7"/>
-      <c r="F64" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G64" s="9">
+      <c r="E64" s="8"/>
+      <c r="F64" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G64" s="10">
         <f>(D65*E64)/D64</f>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="10"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G65" s="11"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="10"/>
-      <c r="G66" s="11"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="11"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G65" s="12"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="11"/>
+      <c r="G66" s="12"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D67" s="6">
+      <c r="D67" s="7">
         <v>25</v>
       </c>
-      <c r="E67" s="7"/>
-      <c r="F67" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G67" s="9">
+      <c r="E67" s="8"/>
+      <c r="F67" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G67" s="10">
         <f>(D68*E67)/D67</f>
         <v>0</v>
       </c>
-      <c r="I67" s="12">
+      <c r="I67" s="13">
         <f>G64+G67+G70</f>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="10"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G68" s="11"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="10"/>
-      <c r="G69" s="11"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="11"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G68" s="12"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="11"/>
+      <c r="G69" s="12"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D70" s="6">
+      <c r="D70" s="7">
         <v>25</v>
       </c>
-      <c r="E70" s="7"/>
-      <c r="F70" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G70" s="9">
+      <c r="E70" s="8"/>
+      <c r="F70" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G70" s="10">
         <f>(D71*E70)/D70</f>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="10"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G71" s="11"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="10"/>
-      <c r="G72" s="11"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="13"/>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="11"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G71" s="12"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="11"/>
+      <c r="G72" s="12"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="14"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
       <c r="D73" s="15">
         <f>D65+D68+D71</f>
         <v>0</v>
       </c>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
       <c r="G73" s="16"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="3" t="s">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="2"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E74" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F74" s="2"/>
-      <c r="G74" s="4" t="s">
+      <c r="F74" s="3"/>
+      <c r="G74" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D75" s="18">
         <v>75</v>
       </c>
-      <c r="E75" s="7"/>
+      <c r="E75" s="8"/>
       <c r="F75" s="19" t="s">
         <v>5</v>
       </c>
@@ -1313,26 +1312,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="10"/>
-      <c r="D76" s="7"/>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" s="11"/>
+      <c r="D76" s="8"/>
       <c r="E76" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G76" s="11"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="10"/>
-      <c r="G77" s="11"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G76" s="12"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" s="11"/>
+      <c r="G77" s="12"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D78" s="18">
         <v>75</v>
       </c>
-      <c r="E78" s="7"/>
+      <c r="E78" s="8"/>
       <c r="F78" s="19" t="s">
         <v>5</v>
       </c>
@@ -1340,31 +1339,31 @@
         <f>(D79*E78)/D78</f>
         <v>0</v>
       </c>
-      <c r="I78" s="12">
+      <c r="I78" s="13">
         <f>G75+G78+G81+G84+G87</f>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="10"/>
-      <c r="D79" s="7"/>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="11"/>
+      <c r="D79" s="8"/>
       <c r="E79" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G79" s="11"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="10"/>
-      <c r="G80" s="11"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G79" s="12"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="11"/>
+      <c r="G80" s="12"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D81" s="18">
         <v>75</v>
       </c>
-      <c r="E81" s="7"/>
+      <c r="E81" s="8"/>
       <c r="F81" s="19" t="s">
         <v>5</v>
       </c>
@@ -1373,26 +1372,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="10"/>
-      <c r="D82" s="7"/>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="11"/>
+      <c r="D82" s="8"/>
       <c r="E82" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G82" s="11"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="10"/>
-      <c r="G83" s="11"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G82" s="12"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="11"/>
+      <c r="G83" s="12"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D84" s="18">
         <v>75</v>
       </c>
-      <c r="E84" s="7"/>
+      <c r="E84" s="8"/>
       <c r="F84" s="19" t="s">
         <v>5</v>
       </c>
@@ -1401,26 +1400,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="10"/>
-      <c r="D85" s="7"/>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="11"/>
+      <c r="D85" s="8"/>
       <c r="E85" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G85" s="11"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="10"/>
-      <c r="G86" s="11"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G85" s="12"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="11"/>
+      <c r="G86" s="12"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D87" s="18">
         <v>75</v>
       </c>
-      <c r="E87" s="7"/>
+      <c r="E87" s="8"/>
       <c r="F87" s="19" t="s">
         <v>5</v>
       </c>
@@ -1429,177 +1428,171 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="10"/>
-      <c r="D88" s="7"/>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="11"/>
+      <c r="D88" s="8"/>
       <c r="E88" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G88" s="11"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="10"/>
-      <c r="G89" s="11"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="13"/>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
+      <c r="G88" s="12"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="11"/>
+      <c r="G89" s="12"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="14"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
       <c r="D90" s="15">
         <f>D76+D79+D82+D85+D88</f>
         <v>0</v>
       </c>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
       <c r="G90" s="16"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="21"/>
-      <c r="B91" s="21"/>
-      <c r="C91" s="21"/>
-      <c r="D91" s="22"/>
-      <c r="E91" s="21"/>
-      <c r="F91" s="21"/>
-      <c r="G91" s="21"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="3" t="s">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D91" s="21"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="2"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E93" s="3" t="s">
+      <c r="E93" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F93" s="2"/>
-      <c r="G93" s="4" t="s">
+      <c r="F93" s="3"/>
+      <c r="G93" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D94" s="6">
+      <c r="D94" s="7">
         <v>25</v>
       </c>
-      <c r="E94" s="7"/>
-      <c r="F94" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G94" s="9">
+      <c r="E94" s="8"/>
+      <c r="F94" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94" s="10">
         <f>(D95*E94)/D94</f>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="10"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G95" s="11"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="10"/>
-      <c r="G96" s="11"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="s">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="11"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G95" s="12"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="11"/>
+      <c r="G96" s="12"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D97" s="6">
+      <c r="D97" s="7">
         <v>25</v>
       </c>
-      <c r="E97" s="7"/>
-      <c r="F97" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G97" s="9">
+      <c r="E97" s="8"/>
+      <c r="F97" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G97" s="10">
         <f>(D98*E97)/D97</f>
         <v>0</v>
       </c>
-      <c r="I97" s="12">
+      <c r="I97" s="13">
         <f>G94+G97+G100</f>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="10"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G98" s="11"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="10"/>
-      <c r="G99" s="11"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98" s="11"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G98" s="12"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" s="11"/>
+      <c r="G99" s="12"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D100" s="6">
+      <c r="D100" s="7">
         <v>25</v>
       </c>
-      <c r="E100" s="7"/>
-      <c r="F100" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G100" s="9">
+      <c r="E100" s="8"/>
+      <c r="F100" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G100" s="10">
         <f>(D101*E100)/D100</f>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="10"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G101" s="11"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="10"/>
-      <c r="G102" s="11"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="13"/>
-      <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" s="11"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G101" s="12"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102" s="11"/>
+      <c r="G102" s="12"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A103" s="14"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
       <c r="D103" s="15">
         <f>D95+D98+D101</f>
         <v>0</v>
       </c>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
       <c r="G103" s="16"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="1"/>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="3" t="s">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A104" s="2"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E104" s="3" t="s">
+      <c r="E104" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F104" s="2"/>
-      <c r="G104" s="4" t="s">
+      <c r="F104" s="3"/>
+      <c r="G104" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D105" s="18">
         <v>75</v>
       </c>
-      <c r="E105" s="7"/>
+      <c r="E105" s="8"/>
       <c r="F105" s="19" t="s">
         <v>5</v>
       </c>
@@ -1608,26 +1601,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="10"/>
-      <c r="D106" s="7"/>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A106" s="11"/>
+      <c r="D106" s="8"/>
       <c r="E106" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G106" s="11"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="10"/>
-      <c r="G107" s="11"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G106" s="12"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A107" s="11"/>
+      <c r="G107" s="12"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D108" s="18">
         <v>75</v>
       </c>
-      <c r="E108" s="7"/>
+      <c r="E108" s="8"/>
       <c r="F108" s="19" t="s">
         <v>5</v>
       </c>
@@ -1635,31 +1628,31 @@
         <f>(D109*E108)/D108</f>
         <v>0</v>
       </c>
-      <c r="I108" s="12">
+      <c r="I108" s="13">
         <f>G105+G108+G111+G114+G117</f>
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="10"/>
-      <c r="D109" s="7"/>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A109" s="11"/>
+      <c r="D109" s="8"/>
       <c r="E109" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G109" s="11"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="10"/>
-      <c r="G110" s="11"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G109" s="12"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A110" s="11"/>
+      <c r="G110" s="12"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D111" s="18">
         <v>75</v>
       </c>
-      <c r="E111" s="7"/>
+      <c r="E111" s="8"/>
       <c r="F111" s="19" t="s">
         <v>5</v>
       </c>
@@ -1668,26 +1661,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="10"/>
-      <c r="D112" s="7"/>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A112" s="11"/>
+      <c r="D112" s="8"/>
       <c r="E112" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G112" s="11"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="10"/>
-      <c r="G113" s="11"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G112" s="12"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" s="11"/>
+      <c r="G113" s="12"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D114" s="18">
         <v>75</v>
       </c>
-      <c r="E114" s="7"/>
+      <c r="E114" s="8"/>
       <c r="F114" s="19" t="s">
         <v>5</v>
       </c>
@@ -1696,26 +1689,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="10"/>
-      <c r="D115" s="7"/>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" s="11"/>
+      <c r="D115" s="8"/>
       <c r="E115" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G115" s="11"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="10"/>
-      <c r="G116" s="11"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G115" s="12"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" s="11"/>
+      <c r="G116" s="12"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D117" s="18">
         <v>75</v>
       </c>
-      <c r="E117" s="7"/>
+      <c r="E117" s="8"/>
       <c r="F117" s="19" t="s">
         <v>5</v>
       </c>
@@ -1724,28 +1717,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="10"/>
-      <c r="D118" s="7"/>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" s="11"/>
+      <c r="D118" s="8"/>
       <c r="E118" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G118" s="11"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="10"/>
-      <c r="G119" s="11"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="13"/>
-      <c r="B120" s="14"/>
-      <c r="C120" s="14"/>
+      <c r="G118" s="12"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" s="11"/>
+      <c r="G119" s="12"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" s="14"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
       <c r="D120" s="15">
         <f>D106+D109+D112+D115+D118</f>
         <v>0</v>
       </c>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
       <c r="G120" s="16"/>
     </row>
   </sheetData>
